--- a/bots/crawl_ch/output/clothes_2022-07-18.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-18.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -860,29 +860,29 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3305779006</t>
+          <t>3404678007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty L schwarz</t>
+          <t>Naturaline Herren Boxer schwarz L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-schwarz/p/3305779006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-l/p/3404678007</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -908,35 +908,37 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty L schwarz 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz L 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6365813009</t>
+          <t>3305779006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38</t>
+          <t>Naturaline Damen Panty L schwarz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-35-38/p/6365813009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-schwarz/p/3305779006</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -945,7 +947,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -954,42 +956,40 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty L schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3404678007</t>
+          <t>6365813009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz L</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-l/p/3404678007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-35-38/p/6365813009</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1007,17 +1007,17 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz L 18.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1422,24 +1422,24 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3404677008</t>
+          <t>3450446007</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz XL</t>
+          <t>Naturaline Herren Shirt schwarz L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-xl/p/3404677008</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1465,34 +1465,34 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz XL 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz L 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3305779009</t>
+          <t>3404677008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty L weiss</t>
+          <t>Naturaline Herren Slip schwarz XL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-weiss/p/3305779009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-xl/p/3404677008</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1523,37 +1523,37 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty L weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz XL 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3450446007</t>
+          <t>6365980009</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-40-42/p/6365980009</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1571,42 +1571,42 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L 19.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6365980009</t>
+          <t>3305779009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42</t>
+          <t>Naturaline Damen Panty L weiss</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-40-42/p/6365980009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-weiss/p/3305779009</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1624,17 +1624,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty L weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2033,32 +2033,30 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3404678005</t>
+          <t>6365978010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 39 - 41</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-39-41/p/6365978010</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2067,7 +2065,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2076,40 +2074,42 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S 18.95 Schweizer Franken</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 39 - 41 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6365978010</t>
+          <t>3404678005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Women's socks Duo Glatt 39-41 schwarz</t>
+          <t>Naturaline Herren Boxer schwarz S</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/women-s-socks-duo-glatt-39-41-schwarz/p/6365978010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2127,17 +2127,17 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Women's socks Duo Glatt 39-41 schwarz 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz S 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2239,36 +2239,30 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6077152003</t>
+          <t>6075749002</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Hasel One Size</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-hasel-one-size/p/6077152003</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2277,29 +2271,13 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.63/1ST</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
@@ -2307,32 +2285,36 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Hasel One Size 3.25 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6075745007</t>
+          <t>6077152003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  10 - 10.5</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-10-105/p/6075745007</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-hasel-one-size/p/6077152003</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
@@ -2346,13 +2328,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
@@ -2360,35 +2358,37 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  10 - 10.5 5.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075749002</t>
+          <t>6075745007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-10-105/p/6075745007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz L</t>
+          <t>Naturaline Damen Bustier Schwarz L</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-l/p/3875554006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-l/p/3875554006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2717,12 +2717,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz L 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss M</t>
+          <t>Naturaline Damen Bustier Weiss M</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-m/p/3875554008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-m/p/3875554008</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2768,12 +2768,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss M 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3052,29 +3052,29 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3305484005</t>
+          <t>5799901001</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz M</t>
+          <t>Magic Matic navy ecorepel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-m/p/3305484005</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-navy-ecorepel/p/5799901001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3095,47 +3095,51 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz M 7.95 Schweizer Franken</t>
+          <t>Magic Matic navy ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5799901001</t>
+          <t>3305484005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu marine</t>
+          <t>Naturaline Damen Slip schwarz M</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-marine/p/5799901001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-m/p/3305484005</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>5</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3144,17 +3148,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu marine 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3209,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3262,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3309,24 +3313,24 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3305779004</t>
+          <t>6365819005</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3341,7 +3345,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3350,40 +3354,42 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6365819005</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3392,7 +3398,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3401,51 +3407,49 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6031467019</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3454,34 +3458,34 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>3305779004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Naturaline Damen Panty S schwarz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3491,12 +3495,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3505,75 +3509,55 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6866453</t>
+          <t>3305484006</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche L</t>
+          <t>Naturaline Damen Slip schwarz L</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-l/p/6866453</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -3581,29 +3565,29 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche L 24.50 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6866453</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Selenacare Menstruationsunterwäsche L</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-l/p/6866453</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3652,50 +3636,70 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche L 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3305484006</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -3703,35 +3707,37 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Damen Bustier Schwarz M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3740,7 +3746,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3754,12 +3760,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3816,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3867,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3938,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3989,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4034,32 +4040,30 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4068,7 +4072,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4082,12 +4086,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4142,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4193,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4244,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4252,12 +4256,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L</t>
+          <t>Naturaline Damen Bustier Weiss L</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4288,12 +4292,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4348,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4401,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4454,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4525,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4596,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4667,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4718,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4745,11 @@
       <c r="F78" t="n">
         <v>4</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>14.95</t>
@@ -4763,7 +4771,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4842,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4895,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4946,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4999,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5052,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5123,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5176,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5229,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5280,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5331,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5384,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5435,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5486,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5537,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5588,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5639,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5690,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5743,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5794,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5845,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5896,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5947,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5998,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6049,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6100,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6151,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6202,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6253,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6306,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6357,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6408,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
@@ -6451,30 +6459,32 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3875554004</t>
+          <t>5799901002</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S</t>
+          <t>Magic Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-s/p/3875554004</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-schwarz-ecorepel/p/5799901002</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6483,7 +6493,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -6492,40 +6502,42 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S 14.95 Schweizer Franken</t>
+          <t>Magic Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3875554007</t>
+          <t>5799902001</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S</t>
+          <t>Mini Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-s/p/3875554007</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/mini-matic-schwarz-ecorepel/p/5799902001</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6534,7 +6546,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -6543,34 +6555,34 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S 14.95 Schweizer Franken</t>
+          <t>Mini Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>3875554004</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Naturaline Damen Bustier Schwarz S</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-s/p/3875554004</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -6585,7 +6597,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -6599,29 +6611,29 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>3875554007</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen Bustier Weiss S</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-s/p/3875554007</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -6636,7 +6648,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -6650,29 +6662,29 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -6687,7 +6699,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -6701,29 +6713,29 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>4322745004</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Naturaline Damen String schwarz L</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -6752,29 +6764,29 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>4322745002</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Naturaline Damen String schwarz S</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -6789,7 +6801,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -6798,34 +6810,34 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3404677005</t>
+          <t>4322745007</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S</t>
+          <t>Naturaline Damen String weiss M</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -6840,7 +6852,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -6854,29 +6866,29 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3305289014</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -6891,7 +6903,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -6900,34 +6912,34 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3305289013</t>
+          <t>3404677005</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S</t>
+          <t>Naturaline Herren Slip schwarz S</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -6942,7 +6954,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -6956,29 +6968,29 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6365980001</t>
+          <t>3305289014</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+          <t>Naturaline Herren Slip weiss M</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -7002,34 +7014,34 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6365980011</t>
+          <t>3305289013</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren Slip weiss S</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -7053,34 +7065,34 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>6365980001</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -7095,7 +7107,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -7104,34 +7116,34 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>6365980011</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -7139,10 +7151,14 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -7151,272 +7167,278 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6548194</t>
+          <t>6031467016</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6866398</t>
+          <t>3890690001</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Portemonnaie schwarz quer klein</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>6548194</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5796044002</t>
+          <t>6866398</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5796044001</t>
+          <t>5796044002</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet</t>
+          <t>Taschenschirm fuchsia gepunktet</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -7424,7 +7446,11 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>14.95</t>
@@ -7441,42 +7467,44 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5799902001</t>
+          <t>5796044001</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Taschenschirm schwarz</t>
+          <t>Taschenschirm sand gepunktet</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -7490,12 +7518,12 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Taschenschirm schwarz 19.95 Schweizer Franken</t>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:50</t>
+          <t>2022-07-18 20:57:24</t>
         </is>
       </c>
     </row>
